--- a/public/excel/exports/sales_data.xlsx
+++ b/public/excel/exports/sales_data.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>Sales Data Report(2019/07/14 01:11:01)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+  <si>
+    <t>Sales Data Report(2019/07/18 05:44:01)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
@@ -26,18 +26,30 @@
     <t>Total Sales</t>
   </si>
   <si>
+    <t>$801.00</t>
+  </si>
+  <si>
     <t>Gross Total</t>
   </si>
   <si>
+    <t>$721.00</t>
+  </si>
+  <si>
     <t>Total GST(10%)</t>
   </si>
   <si>
+    <t>$81.00</t>
+  </si>
+  <si>
     <t>Guest</t>
   </si>
   <si>
     <t>Cash Income</t>
   </si>
   <si>
+    <t>$0.00</t>
+  </si>
+  <si>
     <t>Cash Count</t>
   </si>
   <si>
@@ -50,34 +62,379 @@
     <t>Refund</t>
   </si>
   <si>
+    <t>$2.00</t>
+  </si>
+  <si>
     <t>Discount</t>
   </si>
   <si>
+    <t>$10.05</t>
+  </si>
+  <si>
     <t>Tip Total</t>
   </si>
   <si>
+    <t>$8.00</t>
+  </si>
+  <si>
     <t>2. Card Sales Data</t>
   </si>
   <si>
+    <t>DEBIT Total</t>
+  </si>
+  <si>
+    <t>DEBIT Tip</t>
+  </si>
+  <si>
+    <t>DEBIT Count</t>
+  </si>
+  <si>
+    <t>AMEX Total</t>
+  </si>
+  <si>
+    <t>$242.00</t>
+  </si>
+  <si>
+    <t>AMEX Tip</t>
+  </si>
+  <si>
+    <t>AMEX Count</t>
+  </si>
+  <si>
+    <t>UNION PAY Total</t>
+  </si>
+  <si>
+    <t>UNION PAY Tip</t>
+  </si>
+  <si>
+    <t>UNION PAY Count</t>
+  </si>
+  <si>
+    <t>VISA / MASTER Total</t>
+  </si>
+  <si>
+    <t>$199.00</t>
+  </si>
+  <si>
+    <t>VISA / MASTER Tip</t>
+  </si>
+  <si>
+    <t>VISA / MASTER Count</t>
+  </si>
+  <si>
+    <t>OTHERS Total</t>
+  </si>
+  <si>
+    <t>$360.00</t>
+  </si>
+  <si>
+    <t>OTHERS Tip</t>
+  </si>
+  <si>
+    <t>$3.00</t>
+  </si>
+  <si>
+    <t>OTHERS Count</t>
+  </si>
+  <si>
     <t>3. Discounts</t>
   </si>
   <si>
+    <t>02:53(1)</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>-$1.00</t>
+  </si>
+  <si>
+    <t>11:54(3)</t>
+  </si>
+  <si>
+    <t>-$3.05</t>
+  </si>
+  <si>
+    <t>12:15(4)</t>
+  </si>
+  <si>
+    <t>-$6.00</t>
+  </si>
+  <si>
+    <t>10:52(6)</t>
+  </si>
+  <si>
+    <t>-$0.00</t>
+  </si>
+  <si>
+    <t>12:02(8)</t>
+  </si>
+  <si>
+    <t>12:10(9)</t>
+  </si>
+  <si>
+    <t>14:19(10)</t>
+  </si>
+  <si>
+    <t>14:29(12)</t>
+  </si>
+  <si>
     <t>4. Canceled Items</t>
   </si>
   <si>
+    <t>xxx</t>
+  </si>
+  <si>
     <t>5. Hour Sales Data</t>
   </si>
   <si>
+    <t xml:space="preserve">Hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales </t>
+  </si>
+  <si>
+    <t>$1.00</t>
+  </si>
+  <si>
+    <t>$198.00</t>
+  </si>
+  <si>
     <t>6. Category Sales Data</t>
   </si>
   <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty </t>
+  </si>
+  <si>
+    <t>1.SPECIALS</t>
+  </si>
+  <si>
+    <t>2.Summer Specials</t>
+  </si>
+  <si>
+    <t>3.Nibbles / Salad</t>
+  </si>
+  <si>
+    <t>$800.00</t>
+  </si>
+  <si>
+    <t>4.Main Dish</t>
+  </si>
+  <si>
+    <t>5.Grilled</t>
+  </si>
+  <si>
+    <t>6.Deep-fried</t>
+  </si>
+  <si>
+    <t>$440.00</t>
+  </si>
+  <si>
+    <t>7.Seefood</t>
+  </si>
+  <si>
+    <t>8.Tempura</t>
+  </si>
+  <si>
+    <t>9.Hot Pot</t>
+  </si>
+  <si>
+    <t>10.Rice Dish</t>
+  </si>
+  <si>
+    <t>11.Desserts</t>
+  </si>
+  <si>
+    <t>12.Child summer</t>
+  </si>
+  <si>
+    <t>13.a1</t>
+  </si>
+  <si>
+    <t>14.a2</t>
+  </si>
+  <si>
+    <t>15.a3</t>
+  </si>
+  <si>
+    <t>16.a4</t>
+  </si>
+  <si>
+    <t>17.a5</t>
+  </si>
+  <si>
+    <t>18.a6</t>
+  </si>
+  <si>
+    <t>19.a7</t>
+  </si>
+  <si>
+    <t>20.a8</t>
+  </si>
+  <si>
+    <t>22.dd</t>
+  </si>
+  <si>
     <t>7. Item Sales Data</t>
   </si>
   <si>
+    <t xml:space="preserve">Item Name </t>
+  </si>
+  <si>
+    <t>Soy Sauce</t>
+  </si>
+  <si>
+    <t>Tamari</t>
+  </si>
+  <si>
+    <t>$602.00</t>
+  </si>
+  <si>
+    <t>Gomadare</t>
+  </si>
+  <si>
+    <t>Spicy Teriyaki</t>
+  </si>
+  <si>
+    <t>Ponzu</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Japanese Vegetable Soup</t>
+  </si>
+  <si>
+    <t>American Vegetable Soup</t>
+  </si>
+  <si>
+    <t>Italian Vegetable Soup</t>
+  </si>
+  <si>
+    <t>Japanese Meat Soup</t>
+  </si>
+  <si>
+    <t>American Meat Soup</t>
+  </si>
+  <si>
+    <t>Italian Meat Soup</t>
+  </si>
+  <si>
+    <t>Japanese Kimchi</t>
+  </si>
+  <si>
+    <t>American Kimchi</t>
+  </si>
+  <si>
+    <t>Italian Kimchi</t>
+  </si>
+  <si>
+    <t>Japanese Potato Dish</t>
+  </si>
+  <si>
+    <t>American Potato Dish</t>
+  </si>
+  <si>
+    <t>Italian Potato Dish</t>
+  </si>
+  <si>
+    <t>Japanese Tomato Dish</t>
+  </si>
+  <si>
+    <t>American Tomato Dish</t>
+  </si>
+  <si>
+    <t>Italian Tomato Dish</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Comprehensive fruit</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
     <t>8. Hourly Item Ranking</t>
   </si>
   <si>
+    <t xml:space="preserve">Item Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
     <t>9. Hourly Cooktime Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooktime(AVG:min) </t>
   </si>
 </sst>
 </file>
@@ -85,7 +442,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -101,6 +458,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -136,15 +502,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,179 +818,1470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="56.12915" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="2.285156" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.136963" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="3.570557" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="3">
+        <v>0</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="3">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="3">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="3">
+        <v>10</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="3">
+        <v>21</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="3">
+        <v>22</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="3">
+        <v>23</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="3">
+        <v>10</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="3">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="2">
+        <v>21.111</v>
+      </c>
+      <c r="B105" s="3">
+        <v>10</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="3">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="3">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O144" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P144" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" s="3">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>5</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3">
+        <v>0</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0</v>
+      </c>
+      <c r="O145" s="3">
+        <v>0</v>
+      </c>
+      <c r="P145" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" s="3">
+        <v>3</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3">
+        <v>3</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0</v>
+      </c>
+      <c r="K146" s="3">
+        <v>0</v>
+      </c>
+      <c r="L146" s="3">
+        <v>0</v>
+      </c>
+      <c r="M146" s="3">
+        <v>0</v>
+      </c>
+      <c r="N146" s="3">
+        <v>0</v>
+      </c>
+      <c r="O146" s="3">
+        <v>0</v>
+      </c>
+      <c r="P146" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O150" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/excel/exports/sales_data.xlsx
+++ b/public/excel/exports/sales_data.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
-  <si>
-    <t>Sales Data Report(2019/07/18 05:44:01)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+  <si>
+    <t>Sales Data Report(2019/07/19 19:57:02)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
@@ -26,30 +26,21 @@
     <t>Total Sales</t>
   </si>
   <si>
-    <t>$801.00</t>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Gross Total</t>
   </si>
   <si>
-    <t>$721.00</t>
-  </si>
-  <si>
     <t>Total GST(10%)</t>
   </si>
   <si>
-    <t>$81.00</t>
-  </si>
-  <si>
     <t>Guest</t>
   </si>
   <si>
     <t>Cash Income</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>Cash Count</t>
   </si>
   <si>
@@ -62,21 +53,12 @@
     <t>Refund</t>
   </si>
   <si>
-    <t>$2.00</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>$10.05</t>
-  </si>
-  <si>
     <t>Tip Total</t>
   </si>
   <si>
-    <t>$8.00</t>
-  </si>
-  <si>
     <t>2. Card Sales Data</t>
   </si>
   <si>
@@ -92,9 +74,6 @@
     <t>AMEX Total</t>
   </si>
   <si>
-    <t>$242.00</t>
-  </si>
-  <si>
     <t>AMEX Tip</t>
   </si>
   <si>
@@ -113,9 +92,6 @@
     <t>VISA / MASTER Total</t>
   </si>
   <si>
-    <t>$199.00</t>
-  </si>
-  <si>
     <t>VISA / MASTER Tip</t>
   </si>
   <si>
@@ -125,66 +101,27 @@
     <t>OTHERS Total</t>
   </si>
   <si>
-    <t>$360.00</t>
-  </si>
-  <si>
     <t>OTHERS Tip</t>
   </si>
   <si>
-    <t>$3.00</t>
-  </si>
-  <si>
     <t>OTHERS Count</t>
   </si>
   <si>
     <t>3. Discounts</t>
   </si>
   <si>
-    <t>02:53(1)</t>
+    <t>4. Canceled Items</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>Reception</t>
   </si>
   <si>
-    <t>-$1.00</t>
-  </si>
-  <si>
-    <t>11:54(3)</t>
-  </si>
-  <si>
-    <t>-$3.05</t>
-  </si>
-  <si>
-    <t>12:15(4)</t>
-  </si>
-  <si>
-    <t>-$6.00</t>
-  </si>
-  <si>
-    <t>10:52(6)</t>
-  </si>
-  <si>
     <t>-$0.00</t>
   </si>
   <si>
-    <t>12:02(8)</t>
-  </si>
-  <si>
-    <t>12:10(9)</t>
-  </si>
-  <si>
-    <t>14:19(10)</t>
-  </si>
-  <si>
-    <t>14:29(12)</t>
-  </si>
-  <si>
-    <t>4. Canceled Items</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>5. Hour Sales Data</t>
   </si>
   <si>
@@ -197,12 +134,6 @@
     <t xml:space="preserve">Sales </t>
   </si>
   <si>
-    <t>$1.00</t>
-  </si>
-  <si>
-    <t>$198.00</t>
-  </si>
-  <si>
     <t>6. Category Sales Data</t>
   </si>
   <si>
@@ -221,9 +152,6 @@
     <t>3.Nibbles / Salad</t>
   </si>
   <si>
-    <t>$800.00</t>
-  </si>
-  <si>
     <t>4.Main Dish</t>
   </si>
   <si>
@@ -233,9 +161,6 @@
     <t>6.Deep-fried</t>
   </si>
   <si>
-    <t>$440.00</t>
-  </si>
-  <si>
     <t>7.Seefood</t>
   </si>
   <si>
@@ -291,9 +216,6 @@
   </si>
   <si>
     <t>Tamari</t>
-  </si>
-  <si>
-    <t>$602.00</t>
   </si>
   <si>
     <t>Gomadare</t>
@@ -818,17 +740,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q150" sqref="Q150"/>
+      <selection activeCell="Q140" sqref="Q140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="56.12915" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="24.136963" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="4.855957" bestFit="true" customWidth="true" style="0"/>
@@ -868,20 +790,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -889,15 +811,15 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -905,7 +827,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -913,108 +835,108 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -1022,1265 +944,1074 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A41"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>47</v>
+      <c r="A42" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>49</v>
+      <c r="A46" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>49</v>
+      <c r="A48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="3">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="3">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
+      <c r="A54" s="3">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>59</v>
+      <c r="A56" s="3">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="3">
-        <v>16</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="3">
-        <v>17</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="3">
-        <v>18</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>10</v>
+      <c r="A74" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="3">
-        <v>19</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>10</v>
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="3">
-        <v>20</v>
+      <c r="A77" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="3">
-        <v>21</v>
+      <c r="A78" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="3">
-        <v>22</v>
+      <c r="A79" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="3">
-        <v>23</v>
+      <c r="A80" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>62</v>
+      <c r="A82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>59</v>
+      <c r="A84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B87" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B89" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B90" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B94" s="3">
         <v>0</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B95" s="3">
         <v>0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="2" t="s">
-        <v>79</v>
+      <c r="A97" s="2">
+        <v>21.111</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B99" s="3">
-        <v>0</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100" s="3">
-        <v>0</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>10</v>
+      <c r="A100" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>10</v>
+      <c r="A102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="2">
-        <v>21.111</v>
+      <c r="A105" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B105" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="1" t="s">
-        <v>88</v>
+      <c r="A108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>59</v>
+      <c r="A110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B112" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B116" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B132" s="3">
-        <v>0</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133" s="2" t="s">
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B133" s="3">
-        <v>0</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
-      <c r="A134" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B134" s="3">
-        <v>0</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
-      <c r="A135" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B135" s="3">
-        <v>0</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
-      <c r="A136" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B136" s="3">
-        <v>0</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
-      <c r="A137" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B137" s="3">
-        <v>0</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
-      <c r="A138" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B138" s="3">
-        <v>0</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
-      <c r="A139" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B139" s="3">
-        <v>0</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
-      <c r="A140" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B140" s="3">
-        <v>0</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
-      <c r="A142" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
-      <c r="A144" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q144" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
-      <c r="A145" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B145" s="3">
-        <v>7</v>
-      </c>
-      <c r="C145" s="3">
-        <v>2</v>
-      </c>
-      <c r="D145" s="3">
-        <v>0</v>
-      </c>
-      <c r="E145" s="3">
-        <v>5</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="3">
-        <v>0</v>
-      </c>
-      <c r="I145" s="3">
-        <v>0</v>
-      </c>
-      <c r="J145" s="3">
-        <v>0</v>
-      </c>
-      <c r="K145" s="3">
-        <v>0</v>
-      </c>
-      <c r="L145" s="3">
-        <v>0</v>
-      </c>
-      <c r="M145" s="3">
-        <v>0</v>
-      </c>
-      <c r="N145" s="3">
-        <v>0</v>
-      </c>
-      <c r="O145" s="3">
-        <v>0</v>
-      </c>
-      <c r="P145" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
-      <c r="A146" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B146" s="3">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3">
-        <v>0</v>
-      </c>
-      <c r="D146" s="3">
-        <v>3</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
-        <v>0</v>
-      </c>
-      <c r="I146" s="3">
-        <v>0</v>
-      </c>
-      <c r="J146" s="3">
-        <v>0</v>
-      </c>
-      <c r="K146" s="3">
-        <v>0</v>
-      </c>
-      <c r="L146" s="3">
-        <v>0</v>
-      </c>
-      <c r="M146" s="3">
-        <v>0</v>
-      </c>
-      <c r="N146" s="3">
-        <v>0</v>
-      </c>
-      <c r="O146" s="3">
-        <v>0</v>
-      </c>
-      <c r="P146" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
-      <c r="A148" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
-      <c r="A150" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M150" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N150" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O150" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P150" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q150" s="4" t="s">
-        <v>137</v>
+      <c r="C140" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/exports/sales_data.xlsx
+++ b/public/excel/exports/sales_data.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
-    <t>Sales Data Report(2019/07/19 19:57:02)</t>
+    <t>Sales Data Report(2019/07/19 21:35:54)</t>
   </si>
   <si>
     <t>1. Sales Data</t>

--- a/public/excel/exports/sales_data.xlsx
+++ b/public/excel/exports/sales_data.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
-  <si>
-    <t>Sales Data Report(2019/07/19 21:35:54)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+  <si>
+    <t>Sales Data Report(2019/08/02 20:46:02)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
@@ -357,6 +357,42 @@
   </si>
   <si>
     <t xml:space="preserve">Cooktime(AVG:min) </t>
+  </si>
+  <si>
+    <t>10. Feedbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>01:42</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>Walked-in 1</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>14:59</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -740,19 +776,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q140" sqref="Q140"/>
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="56.12915" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="24.136963" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.712158" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.855957" bestFit="true" customWidth="true" style="0"/>
@@ -806,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2012,6 +2048,62 @@
       </c>
       <c r="Q140" s="4" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
